--- a/branches/merging/StructureDefinition-Organization-uv-epi.xlsx
+++ b/branches/merging/StructureDefinition-Organization-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2954" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2955" uniqueCount="519">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T08:19:53+00:00</t>
+    <t>2023-04-06T10:24:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -619,9 +619,6 @@
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/organizationIdSystems</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -777,6 +774,9 @@
   </si>
   <si>
     <t>Need to be able to track the kind of organization that this is - different organization types have different uses.</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/organizationType</t>
@@ -1600,9 +1600,6 @@
   </si>
   <si>
     <t>Coded representation of the qualification.</t>
-  </si>
-  <si>
-    <t>example</t>
   </si>
   <si>
     <t>Specific qualification the organization has to provide a service.</t>
@@ -1963,7 +1960,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="72.51953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="67.51953125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -3808,29 +3805,31 @@
         <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="Y16" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3848,24 +3847,24 @@
         <v>76</v>
       </c>
       <c r="AL16" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO16" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>199</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3888,16 +3887,16 @@
         <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3911,52 +3910,52 @@
         <v>76</v>
       </c>
       <c r="T17" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="U17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF17" t="s" s="2">
+      <c r="AG17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI17" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>99</v>
@@ -3965,24 +3964,24 @@
         <v>76</v>
       </c>
       <c r="AL17" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO17" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>210</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4005,13 +4004,13 @@
         <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4062,7 +4061,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -4080,24 +4079,24 @@
         <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO18" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>218</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4120,16 +4119,16 @@
         <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4179,7 +4178,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -4197,24 +4196,24 @@
         <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO19" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>227</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4237,26 +4236,26 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="N20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="O20" t="s" s="2">
+      <c r="P20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q20" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="P20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q20" t="s" s="2">
-        <v>234</v>
-      </c>
       <c r="R20" t="s" s="2">
         <v>76</v>
       </c>
@@ -4300,7 +4299,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -4315,27 +4314,27 @@
         <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AN20" t="s" s="2">
+      <c r="AO20" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>239</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4361,16 +4360,16 @@
         <v>179</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>76</v>
@@ -4395,7 +4394,7 @@
         <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>184</v>
+        <v>244</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
@@ -4417,7 +4416,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -4475,7 +4474,7 @@
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>250</v>
@@ -4594,7 +4593,7 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>259</v>
@@ -5992,7 +5991,7 @@
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>320</v>
@@ -6080,7 +6079,7 @@
         <v>76</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36">
@@ -6347,7 +6346,7 @@
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>348</v>
@@ -6431,7 +6430,7 @@
         <v>76</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39">
@@ -6926,7 +6925,7 @@
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L43" t="s" s="2">
         <v>320</v>
@@ -7014,7 +7013,7 @@
         <v>76</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="44">
@@ -7281,7 +7280,7 @@
         <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>348</v>
@@ -7365,7 +7364,7 @@
         <v>76</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="47">
@@ -7860,7 +7859,7 @@
         <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>320</v>
@@ -7948,7 +7947,7 @@
         <v>76</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52">
@@ -8215,7 +8214,7 @@
         <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L54" t="s" s="2">
         <v>348</v>
@@ -8299,7 +8298,7 @@
         <v>76</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="55">
@@ -8915,7 +8914,7 @@
         <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>404</v>
@@ -9034,7 +9033,7 @@
         <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L61" t="s" s="2">
         <v>413</v>
@@ -9149,7 +9148,7 @@
         <v>88</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L62" t="s" s="2">
         <v>422</v>
@@ -9264,7 +9263,7 @@
         <v>88</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L63" t="s" s="2">
         <v>431</v>
@@ -9381,7 +9380,7 @@
         <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L64" t="s" s="2">
         <v>440</v>
@@ -9496,7 +9495,7 @@
         <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L65" t="s" s="2">
         <v>448</v>
@@ -9611,7 +9610,7 @@
         <v>88</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L66" t="s" s="2">
         <v>456</v>
@@ -9726,7 +9725,7 @@
         <v>88</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L67" t="s" s="2">
         <v>466</v>
@@ -9812,7 +9811,7 @@
         <v>76</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="68">
@@ -9843,7 +9842,7 @@
         <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L68" t="s" s="2">
         <v>473</v>
@@ -9960,7 +9959,7 @@
         <v>88</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L69" t="s" s="2">
         <v>478</v>
@@ -10077,7 +10076,7 @@
         <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L70" t="s" s="2">
         <v>483</v>
@@ -10154,7 +10153,7 @@
         <v>76</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>486</v>
@@ -10426,7 +10425,7 @@
         <v>76</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L73" t="s" s="2">
         <v>158</v>
@@ -10927,10 +10926,10 @@
         <v>76</v>
       </c>
       <c r="X77" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="Y77" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>76</v>
@@ -10983,10 +10982,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11009,17 +11008,17 @@
         <v>76</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>76</v>
@@ -11068,7 +11067,7 @@
         <v>76</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
@@ -11100,10 +11099,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11126,13 +11125,13 @@
         <v>76</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11183,7 +11182,7 @@
         <v>76</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
